--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mfge8-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mfge8-Itgav.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.52556533333333</v>
+        <v>28.52675633333333</v>
       </c>
       <c r="H2">
-        <v>46.576696</v>
+        <v>85.580269</v>
       </c>
       <c r="I2">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="J2">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N2">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q2">
-        <v>155.2735129086551</v>
+        <v>517.8471491019591</v>
       </c>
       <c r="R2">
-        <v>1397.461616177896</v>
+        <v>4660.624341917632</v>
       </c>
       <c r="S2">
-        <v>0.007144684601263477</v>
+        <v>0.02419699642324997</v>
       </c>
       <c r="T2">
-        <v>0.007144684601263476</v>
+        <v>0.02419699642324997</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.52556533333333</v>
+        <v>28.52675633333333</v>
       </c>
       <c r="H3">
-        <v>46.576696</v>
+        <v>85.580269</v>
       </c>
       <c r="I3">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="J3">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P3">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q3">
-        <v>1108.231709082097</v>
+        <v>2036.270837621793</v>
       </c>
       <c r="R3">
-        <v>9974.085381738872</v>
+        <v>18326.43753859613</v>
       </c>
       <c r="S3">
-        <v>0.05099366838675682</v>
+        <v>0.09514706851268506</v>
       </c>
       <c r="T3">
-        <v>0.05099366838675682</v>
+        <v>0.09514706851268508</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.52556533333333</v>
+        <v>28.52675633333333</v>
       </c>
       <c r="H4">
-        <v>46.576696</v>
+        <v>85.580269</v>
       </c>
       <c r="I4">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="J4">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N4">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q4">
-        <v>1083.744482102245</v>
+        <v>1884.754518183997</v>
       </c>
       <c r="R4">
-        <v>9753.700338920207</v>
+        <v>16962.79066365597</v>
       </c>
       <c r="S4">
-        <v>0.04986692429336137</v>
+        <v>0.08806729633307903</v>
       </c>
       <c r="T4">
-        <v>0.04986692429336137</v>
+        <v>0.08806729633307905</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.52556533333333</v>
+        <v>28.52675633333333</v>
       </c>
       <c r="H5">
-        <v>46.576696</v>
+        <v>85.580269</v>
       </c>
       <c r="I5">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="J5">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N5">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q5">
-        <v>316.1214800502435</v>
+        <v>489.5429585215384</v>
       </c>
       <c r="R5">
-        <v>2845.093320452192</v>
+        <v>4405.886626693846</v>
       </c>
       <c r="S5">
-        <v>0.01454586959703994</v>
+        <v>0.02287445095896553</v>
       </c>
       <c r="T5">
-        <v>0.01454586959703993</v>
+        <v>0.02287445095896553</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.52556533333333</v>
+        <v>28.52675633333333</v>
       </c>
       <c r="H6">
-        <v>46.576696</v>
+        <v>85.580269</v>
       </c>
       <c r="I6">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="J6">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N6">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q6">
-        <v>470.4596293994498</v>
+        <v>943.2760991483866</v>
       </c>
       <c r="R6">
-        <v>4234.136664595047</v>
+        <v>8489.484892335478</v>
       </c>
       <c r="S6">
-        <v>0.02164751480610708</v>
+        <v>0.04407564748944245</v>
       </c>
       <c r="T6">
-        <v>0.02164751480610708</v>
+        <v>0.04407564748944245</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.52556533333333</v>
+        <v>28.52675633333333</v>
       </c>
       <c r="H7">
-        <v>46.576696</v>
+        <v>85.580269</v>
       </c>
       <c r="I7">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="J7">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N7">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q7">
-        <v>1238.378424522182</v>
+        <v>2555.856939754157</v>
       </c>
       <c r="R7">
-        <v>11145.40582069964</v>
+        <v>23002.71245778741</v>
       </c>
       <c r="S7">
-        <v>0.05698217998987111</v>
+        <v>0.119425319492091</v>
       </c>
       <c r="T7">
-        <v>0.05698217998987111</v>
+        <v>0.119425319492091</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>38.891698</v>
       </c>
       <c r="I8">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="J8">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N8">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q8">
-        <v>129.6539061388664</v>
+        <v>235.334092406678</v>
       </c>
       <c r="R8">
-        <v>1166.885155249798</v>
+        <v>2118.006831660102</v>
       </c>
       <c r="S8">
-        <v>0.005965835700702977</v>
+        <v>0.01099625285590208</v>
       </c>
       <c r="T8">
-        <v>0.005965835700702977</v>
+        <v>0.01099625285590208</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>38.891698</v>
       </c>
       <c r="I9">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="J9">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P9">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q9">
         <v>925.3772088867095</v>
@@ -1013,10 +1013,10 @@
         <v>8328.394879980386</v>
       </c>
       <c r="S9">
-        <v>0.04257988481643037</v>
+        <v>0.04323930150512446</v>
       </c>
       <c r="T9">
-        <v>0.04257988481643038</v>
+        <v>0.04323930150512446</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>38.891698</v>
       </c>
       <c r="I10">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="J10">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N10">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q10">
-        <v>904.9302919014892</v>
+        <v>856.5210694225266</v>
       </c>
       <c r="R10">
-        <v>8144.372627113404</v>
+        <v>7708.689624802741</v>
       </c>
       <c r="S10">
-        <v>0.04163904970430436</v>
+        <v>0.04002192015384547</v>
       </c>
       <c r="T10">
-        <v>0.04163904970430436</v>
+        <v>0.04002192015384548</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>38.891698</v>
       </c>
       <c r="I11">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="J11">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N11">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q11">
-        <v>263.9625003333662</v>
+        <v>222.4713374159433</v>
       </c>
       <c r="R11">
-        <v>2375.662503000296</v>
+        <v>2002.24203674349</v>
       </c>
       <c r="S11">
-        <v>0.01214585009455069</v>
+        <v>0.01039522601421009</v>
       </c>
       <c r="T11">
-        <v>0.01214585009455069</v>
+        <v>0.01039522601421009</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>38.891698</v>
       </c>
       <c r="I12">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="J12">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N12">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q12">
-        <v>392.8353747503971</v>
+        <v>428.6690098940575</v>
       </c>
       <c r="R12">
-        <v>3535.518372753574</v>
+        <v>3858.021089046518</v>
       </c>
       <c r="S12">
-        <v>0.01807574775784107</v>
+        <v>0.02003004654395108</v>
       </c>
       <c r="T12">
-        <v>0.01807574775784107</v>
+        <v>0.02003004654395108</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>38.891698</v>
       </c>
       <c r="I13">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="J13">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N13">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q13">
-        <v>1034.050154528619</v>
+        <v>1161.501563311548</v>
       </c>
       <c r="R13">
-        <v>9306.451390757571</v>
+        <v>10453.51406980394</v>
       </c>
       <c r="S13">
-        <v>0.04758031217044056</v>
+        <v>0.0542724802517262</v>
       </c>
       <c r="T13">
-        <v>0.04758031217044057</v>
+        <v>0.0542724802517262</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.281231333333333</v>
+        <v>1.361517666666667</v>
       </c>
       <c r="H14">
-        <v>21.843694</v>
+        <v>4.084553</v>
       </c>
       <c r="I14">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="J14">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N14">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q14">
-        <v>72.82068917644378</v>
+        <v>24.715675133083</v>
       </c>
       <c r="R14">
-        <v>655.3862025879939</v>
+        <v>222.441076197747</v>
       </c>
       <c r="S14">
-        <v>0.003350737977560954</v>
+        <v>0.001154868002711874</v>
       </c>
       <c r="T14">
-        <v>0.003350737977560954</v>
+        <v>0.001154868002711874</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.281231333333333</v>
+        <v>1.361517666666667</v>
       </c>
       <c r="H15">
-        <v>21.843694</v>
+        <v>4.084553</v>
       </c>
       <c r="I15">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="J15">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P15">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q15">
-        <v>519.7421975634842</v>
+        <v>97.18660920101344</v>
       </c>
       <c r="R15">
-        <v>4677.679778071358</v>
+        <v>874.6794828091209</v>
       </c>
       <c r="S15">
-        <v>0.02391518041936228</v>
+        <v>0.00454115473900524</v>
       </c>
       <c r="T15">
-        <v>0.02391518041936229</v>
+        <v>0.004541154739005241</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.281231333333333</v>
+        <v>1.361517666666667</v>
       </c>
       <c r="H16">
-        <v>21.843694</v>
+        <v>4.084553</v>
       </c>
       <c r="I16">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="J16">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N16">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q16">
-        <v>508.2580963070013</v>
+        <v>89.95507739654333</v>
       </c>
       <c r="R16">
-        <v>4574.322866763012</v>
+        <v>809.59569656889</v>
       </c>
       <c r="S16">
-        <v>0.0233867562221535</v>
+        <v>0.004203253198925641</v>
       </c>
       <c r="T16">
-        <v>0.0233867562221535</v>
+        <v>0.004203253198925642</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.281231333333333</v>
+        <v>1.361517666666667</v>
       </c>
       <c r="H17">
-        <v>21.843694</v>
+        <v>4.084553</v>
       </c>
       <c r="I17">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="J17">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N17">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q17">
-        <v>148.2557044631209</v>
+        <v>23.36478002725167</v>
       </c>
       <c r="R17">
-        <v>1334.301340168088</v>
+        <v>210.283020245265</v>
       </c>
       <c r="S17">
-        <v>0.006821770364339361</v>
+        <v>0.001091745893995677</v>
       </c>
       <c r="T17">
-        <v>0.006821770364339361</v>
+        <v>0.001091745893995677</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.281231333333333</v>
+        <v>1.361517666666667</v>
       </c>
       <c r="H18">
-        <v>21.843694</v>
+        <v>4.084553</v>
       </c>
       <c r="I18">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="J18">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N18">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q18">
-        <v>220.6377237225024</v>
+        <v>45.02043830459144</v>
       </c>
       <c r="R18">
-        <v>1985.739513502522</v>
+        <v>405.1839447413229</v>
       </c>
       <c r="S18">
-        <v>0.01015232358441811</v>
+        <v>0.002103631132310938</v>
       </c>
       <c r="T18">
-        <v>0.01015232358441811</v>
+        <v>0.002103631132310938</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.281231333333333</v>
+        <v>1.361517666666667</v>
       </c>
       <c r="H19">
-        <v>21.843694</v>
+        <v>4.084553</v>
       </c>
       <c r="I19">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="J19">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N19">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q19">
-        <v>580.7788375857456</v>
+        <v>121.9852806356996</v>
       </c>
       <c r="R19">
-        <v>5227.00953827171</v>
+        <v>1097.867525721296</v>
       </c>
       <c r="S19">
-        <v>0.02672369253395878</v>
+        <v>0.005699900838210484</v>
       </c>
       <c r="T19">
-        <v>0.02672369253395878</v>
+        <v>0.005699900838210484</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30.676648</v>
+        <v>20.87837866666667</v>
       </c>
       <c r="H20">
-        <v>92.029944</v>
+        <v>62.635136</v>
       </c>
       <c r="I20">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="J20">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N20">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q20">
-        <v>306.8017683707494</v>
+        <v>379.005896922496</v>
       </c>
       <c r="R20">
-        <v>2761.215915336744</v>
+        <v>3411.053072302464</v>
       </c>
       <c r="S20">
-        <v>0.01411703663462819</v>
+        <v>0.01770948116278736</v>
       </c>
       <c r="T20">
-        <v>0.01411703663462819</v>
+        <v>0.01770948116278737</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>30.676648</v>
+        <v>20.87837866666667</v>
       </c>
       <c r="H21">
-        <v>92.029944</v>
+        <v>62.635136</v>
       </c>
       <c r="I21">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="J21">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>214.143257</v>
       </c>
       <c r="O21">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P21">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q21">
-        <v>2189.732438854179</v>
+        <v>1490.321336186439</v>
       </c>
       <c r="R21">
-        <v>19707.59194968761</v>
+        <v>13412.89202567795</v>
       </c>
       <c r="S21">
-        <v>0.1007573496837947</v>
+        <v>0.06963695774657294</v>
       </c>
       <c r="T21">
-        <v>0.1007573496837947</v>
+        <v>0.06963695774657297</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.676648</v>
+        <v>20.87837866666667</v>
       </c>
       <c r="H22">
-        <v>92.029944</v>
+        <v>62.635136</v>
       </c>
       <c r="I22">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="J22">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N22">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q22">
-        <v>2141.348626321168</v>
+        <v>1379.428423776853</v>
       </c>
       <c r="R22">
-        <v>19272.13763689051</v>
+        <v>12414.85581399168</v>
       </c>
       <c r="S22">
-        <v>0.09853103900221447</v>
+        <v>0.06445536041695202</v>
       </c>
       <c r="T22">
-        <v>0.09853103900221448</v>
+        <v>0.06445536041695205</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.676648</v>
+        <v>20.87837866666667</v>
       </c>
       <c r="H23">
-        <v>92.029944</v>
+        <v>62.635136</v>
       </c>
       <c r="I23">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="J23">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N23">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q23">
-        <v>624.6179872058987</v>
+        <v>358.2904113661867</v>
       </c>
       <c r="R23">
-        <v>5621.561884853088</v>
+        <v>3224.61370229568</v>
       </c>
       <c r="S23">
-        <v>0.02874088716913041</v>
+        <v>0.01674152656309291</v>
       </c>
       <c r="T23">
-        <v>0.02874088716913041</v>
+        <v>0.01674152656309291</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.676648</v>
+        <v>20.87837866666667</v>
       </c>
       <c r="H24">
-        <v>92.029944</v>
+        <v>62.635136</v>
       </c>
       <c r="I24">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="J24">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N24">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q24">
-        <v>929.5715897901414</v>
+        <v>690.3720617623751</v>
       </c>
       <c r="R24">
-        <v>8366.144308111272</v>
+        <v>6213.348555861376</v>
       </c>
       <c r="S24">
-        <v>0.04277288314622415</v>
+        <v>0.03225841899128976</v>
       </c>
       <c r="T24">
-        <v>0.04277288314622415</v>
+        <v>0.03225841899128977</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.676648</v>
+        <v>20.87837866666667</v>
       </c>
       <c r="H25">
-        <v>92.029944</v>
+        <v>62.635136</v>
       </c>
       <c r="I25">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="J25">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N25">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O25">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P25">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q25">
-        <v>2446.886680403107</v>
+        <v>1870.599951234617</v>
       </c>
       <c r="R25">
-        <v>22021.98012362796</v>
+        <v>16835.39956111155</v>
       </c>
       <c r="S25">
-        <v>0.1125899276639493</v>
+        <v>0.0874059081098538</v>
       </c>
       <c r="T25">
-        <v>0.1125899276639494</v>
+        <v>0.08740590810985382</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.374402</v>
+        <v>1.70322</v>
       </c>
       <c r="H26">
-        <v>4.123206</v>
+        <v>5.10966</v>
       </c>
       <c r="I26">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="J26">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N26">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O26">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P26">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q26">
-        <v>13.745601020434</v>
+        <v>30.91860886626</v>
       </c>
       <c r="R26">
-        <v>123.710409183906</v>
+        <v>278.26747979634</v>
       </c>
       <c r="S26">
-        <v>0.0006324838158558344</v>
+        <v>0.001444707129210162</v>
       </c>
       <c r="T26">
-        <v>0.0006324838158558343</v>
+        <v>0.001444707129210162</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.374402</v>
+        <v>1.70322</v>
       </c>
       <c r="H27">
-        <v>4.123206</v>
+        <v>5.10966</v>
       </c>
       <c r="I27">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="J27">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>214.143257</v>
       </c>
       <c r="O27">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P27">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q27">
-        <v>98.10630690243799</v>
+        <v>121.57769272918</v>
       </c>
       <c r="R27">
-        <v>882.956762121942</v>
+        <v>1094.19923456262</v>
       </c>
       <c r="S27">
-        <v>0.004514218858595853</v>
+        <v>0.0056808558301742</v>
       </c>
       <c r="T27">
-        <v>0.004514218858595853</v>
+        <v>0.0056808558301742</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.374402</v>
+        <v>1.70322</v>
       </c>
       <c r="H28">
-        <v>4.123206</v>
+        <v>5.10966</v>
       </c>
       <c r="I28">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="J28">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N28">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O28">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P28">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q28">
-        <v>95.93857303813199</v>
+        <v>112.5312514662</v>
       </c>
       <c r="R28">
-        <v>863.4471573431879</v>
+        <v>1012.7812631958</v>
       </c>
       <c r="S28">
-        <v>0.00441447374128756</v>
+        <v>0.005258150583533227</v>
       </c>
       <c r="T28">
-        <v>0.00441447374128756</v>
+        <v>0.005258150583533229</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.374402</v>
+        <v>1.70322</v>
       </c>
       <c r="H29">
-        <v>4.123206</v>
+        <v>5.10966</v>
       </c>
       <c r="I29">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="J29">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N29">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O29">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P29">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q29">
-        <v>27.984681078968</v>
+        <v>29.2286773887</v>
       </c>
       <c r="R29">
-        <v>251.862129710712</v>
+        <v>263.0580964983</v>
       </c>
       <c r="S29">
-        <v>0.001287674351090353</v>
+        <v>0.001365743160809506</v>
       </c>
       <c r="T29">
-        <v>0.001287674351090353</v>
+        <v>0.001365743160809506</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.374402</v>
+        <v>1.70322</v>
       </c>
       <c r="H30">
-        <v>4.123206</v>
+        <v>5.10966</v>
       </c>
       <c r="I30">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="J30">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N30">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O30">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P30">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q30">
-        <v>41.647478960242</v>
+        <v>56.31929192434</v>
       </c>
       <c r="R30">
-        <v>374.827310642178</v>
+        <v>506.8736273190599</v>
       </c>
       <c r="S30">
-        <v>0.001916348101068173</v>
+        <v>0.002631582905528195</v>
       </c>
       <c r="T30">
-        <v>0.001916348101068173</v>
+        <v>0.002631582905528195</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.374402</v>
+        <v>1.70322</v>
       </c>
       <c r="H31">
-        <v>4.123206</v>
+        <v>5.10966</v>
       </c>
       <c r="I31">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="J31">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N31">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O31">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P31">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q31">
-        <v>109.62755602631</v>
+        <v>152.60012761568</v>
       </c>
       <c r="R31">
-        <v>986.64800423679</v>
+        <v>1373.40114854112</v>
       </c>
       <c r="S31">
-        <v>0.005044352360831187</v>
+        <v>0.007130414348147909</v>
       </c>
       <c r="T31">
-        <v>0.005044352360831187</v>
+        <v>0.007130414348147909</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>9.350440000000001</v>
+        <v>7.008366333333332</v>
       </c>
       <c r="H32">
-        <v>28.05132</v>
+        <v>21.025099</v>
       </c>
       <c r="I32">
-        <v>0.121163342450867</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="J32">
-        <v>0.1211633424508669</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N32">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O32">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P32">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q32">
-        <v>93.51515612281334</v>
+        <v>127.223105325089</v>
       </c>
       <c r="R32">
-        <v>841.63640510532</v>
+        <v>1145.007947925801</v>
       </c>
       <c r="S32">
-        <v>0.004302963740689426</v>
+        <v>0.005944644148074323</v>
       </c>
       <c r="T32">
-        <v>0.004302963740689426</v>
+        <v>0.005944644148074323</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>9.350440000000001</v>
+        <v>7.008366333333332</v>
       </c>
       <c r="H33">
-        <v>28.05132</v>
+        <v>21.025099</v>
       </c>
       <c r="I33">
-        <v>0.121163342450867</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="J33">
-        <v>0.1211633424508669</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>214.143257</v>
       </c>
       <c r="O33">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P33">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q33">
-        <v>667.4445586610267</v>
+        <v>500.2647976230491</v>
       </c>
       <c r="R33">
-        <v>6007.00102794924</v>
+        <v>4502.383178607442</v>
       </c>
       <c r="S33">
-        <v>0.03071148949446306</v>
+        <v>0.0233754410732103</v>
       </c>
       <c r="T33">
-        <v>0.03071148949446306</v>
+        <v>0.0233754410732103</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>9.350440000000001</v>
+        <v>7.008366333333332</v>
       </c>
       <c r="H34">
-        <v>28.05132</v>
+        <v>21.025099</v>
       </c>
       <c r="I34">
-        <v>0.121163342450867</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="J34">
-        <v>0.1211633424508669</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N34">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O34">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P34">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q34">
-        <v>652.6968608010401</v>
+        <v>463.0407312170966</v>
       </c>
       <c r="R34">
-        <v>5874.27174720936</v>
+        <v>4167.36658095387</v>
       </c>
       <c r="S34">
-        <v>0.03003289565169787</v>
+        <v>0.02163610427615416</v>
       </c>
       <c r="T34">
-        <v>0.03003289565169787</v>
+        <v>0.02163610427615417</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>9.350440000000001</v>
+        <v>7.008366333333332</v>
       </c>
       <c r="H35">
-        <v>28.05132</v>
+        <v>21.025099</v>
       </c>
       <c r="I35">
-        <v>0.121163342450867</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="J35">
-        <v>0.1211633424508669</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N35">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O35">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P35">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q35">
-        <v>190.3875877276267</v>
+        <v>120.2694182658883</v>
       </c>
       <c r="R35">
-        <v>1713.48828954864</v>
+        <v>1082.424764392995</v>
       </c>
       <c r="S35">
-        <v>0.008760407624122552</v>
+        <v>0.005619725219406533</v>
       </c>
       <c r="T35">
-        <v>0.00876040762412255</v>
+        <v>0.005619725219406533</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>9.350440000000001</v>
+        <v>7.008366333333332</v>
       </c>
       <c r="H36">
-        <v>28.05132</v>
+        <v>21.025099</v>
       </c>
       <c r="I36">
-        <v>0.121163342450867</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="J36">
-        <v>0.1211633424508669</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N36">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O36">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P36">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q36">
-        <v>283.3394110085733</v>
+        <v>231.7411898872232</v>
       </c>
       <c r="R36">
-        <v>2550.05469907716</v>
+        <v>2085.670708985009</v>
       </c>
       <c r="S36">
-        <v>0.01303745042436775</v>
+        <v>0.01082837040340021</v>
       </c>
       <c r="T36">
-        <v>0.01303745042436775</v>
+        <v>0.01082837040340021</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>9.350440000000001</v>
+        <v>7.008366333333332</v>
       </c>
       <c r="H37">
-        <v>28.05132</v>
+        <v>21.025099</v>
       </c>
       <c r="I37">
-        <v>0.121163342450867</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="J37">
-        <v>0.1211633424508669</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N37">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O37">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P37">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q37">
-        <v>745.8268286648668</v>
+        <v>627.9151236153297</v>
       </c>
       <c r="R37">
-        <v>6712.4414579838</v>
+        <v>5651.236112537968</v>
       </c>
       <c r="S37">
-        <v>0.03431813551552629</v>
+        <v>0.02934004759237018</v>
       </c>
       <c r="T37">
-        <v>0.03431813551552629</v>
+        <v>0.02934004759237018</v>
       </c>
     </row>
   </sheetData>
